--- a/sample/order_data.xlsx
+++ b/sample/order_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimlee\Desktop\APP-cloud\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimlee\Desktop\APP-cloud(opt)\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>訂單編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K11" s="4">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K15" s="4">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>

--- a/sample/order_data.xlsx
+++ b/sample/order_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimlee\Desktop\APP-cloud(opt)\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\APP-cloud-finish\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>訂單編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,24 +490,24 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -816,13 +816,13 @@
         <v>5</v>
       </c>
       <c r="J9" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1080,7 +1080,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1093,7 +1093,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1106,7 +1106,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1119,7 +1119,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
